--- a/EJERCICIO1.xlsx
+++ b/EJERCICIO1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curso mañana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temporal\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>VENDEDOR</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>MEDIA</t>
+  </si>
+  <si>
+    <t>fddsf</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H9"/>
+  <dimension ref="C3:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
@@ -397,7 +400,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -439,7 +442,7 @@
         <v>1200.3666666666666</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -461,7 +464,7 @@
         <v>1123.5833333333333</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -483,7 +486,7 @@
         <v>833.38333333333333</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -505,7 +508,7 @@
         <v>683.63333333333321</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -513,7 +516,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -536,6 +539,11 @@
       <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>3840.9666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
